--- a/biology/Zoologie/Episcada_sulphurea/Episcada_sulphurea.xlsx
+++ b/biology/Zoologie/Episcada_sulphurea/Episcada_sulphurea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Episcada sulphurea est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Episcada.
 </t>
@@ -511,13 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Episcada sulphurea a été décrit par Richard Haensch en 1905[1].
-Sous-espèces
-Episcada sulphurea sulphurea; présent en Bolivie[2].
-Episcada sulphurea ssp
-Episcada sulphurea ssp</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada sulphurea a été décrit par Richard Haensch en 1905.
+</t>
         </is>
       </c>
     </row>
@@ -542,14 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Episcada sulphurea est un papillon à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave.
-Les ailes sont transparentes avec de très fines veines marron et une bordure marron, ainsi que le long de la cellule depuis le bord costal et sur les ailes antérieures une plage très pâle après la cellule.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Episcada sulphurea sulphurea; présent en Bolivie.
+Episcada sulphurea ssp
+Episcada sulphurea ssp</t>
         </is>
       </c>
     </row>
@@ -574,10 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada sulphurea est un papillon à l'abdomen mince, aux ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave.
+Les ailes sont transparentes avec de très fines veines marron et une bordure marron, ainsi que le long de la cellule depuis le bord costal et sur les ailes antérieures une plage très pâle après la cellule.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,15 +625,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Episcada_sulphurea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_sulphurea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Episcada sulphurea est présent en Bolivie et au Pérou[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Episcada sulphurea est présent en Bolivie et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Episcada_sulphurea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Episcada_sulphurea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Episcada sulphurea, sur Wikimedia CommonsEpiscada sulphurea, sur Wikispecies
 </t>
